--- a/data/trans_camb/P38C-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Clase-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,56</t>
+          <t>-5,68; 4,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 1,74</t>
+          <t>-6,36; 2,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 2,31</t>
+          <t>-4,54; 2,13</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,41</t>
+          <t>-6,38; 5,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,96</t>
+          <t>-6,82; 2,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 2,64</t>
+          <t>-5,0; 2,44</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 4,4</t>
+          <t>-6,06; 4,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 4,36</t>
+          <t>-5,12; 4,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,8</t>
+          <t>-3,91; 3,21</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 5,3</t>
+          <t>-6,73; 5,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 5,12</t>
+          <t>-5,67; 5,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 3,32</t>
+          <t>-4,43; 3,78</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-63,79; 1,72</t>
+          <t>-65,9; 1,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 9,42</t>
+          <t>-2,17; 10,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-61,84; 2,37</t>
+          <t>-61,02; 2,57</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 1,95</t>
+          <t>-76,6; 2,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 11,42</t>
+          <t>-2,29; 12,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,36; 2,75</t>
+          <t>-69,46; 3,02</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,38</t>
+          <t>-7,01; 1,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,55</t>
+          <t>1,41; 9,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,95</t>
+          <t>-1,47; 6,07</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 1,69</t>
+          <t>-8,31; 1,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,26; 12,57</t>
+          <t>1,53; 11,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 7,09</t>
+          <t>-1,73; 7,34</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 4,13</t>
+          <t>-6,2; 5,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 3,19</t>
+          <t>-27,63; 3,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 2,68</t>
+          <t>-17,02; 2,51</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 5,29</t>
+          <t>-7,6; 6,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 3,69</t>
+          <t>-31,62; 3,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 3,26</t>
+          <t>-20,03; 3,01</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 5,08</t>
+          <t>-20,56; 4,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -1,33</t>
+          <t>-8,94; -1,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -2,43</t>
+          <t>-11,22; -2,36</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 10,37</t>
+          <t>-36,72; 7,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,78; -1,59</t>
+          <t>-10,16; -2,02</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -3,28</t>
+          <t>-13,74; -2,96</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-25,61; -0,38</t>
+          <t>-26,0; -0,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 1,77</t>
+          <t>-7,03; 1,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,58; -0,14</t>
+          <t>-15,83; -0,25</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-31,64; -0,47</t>
+          <t>-31,46; -0,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 2,04</t>
+          <t>-7,97; 1,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,27; -0,19</t>
+          <t>-18,75; -0,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Clase-trans_camb.xlsx
@@ -1026,7 +1026,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
